--- a/data_year/zb/科技/高技术产业生产经营情况/高技术产业利润额.xlsx
+++ b/data_year/zb/科技/高技术产业生产经营情况/高技术产业利润额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,686 +538,532 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3053686.6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4176557.2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>927633.8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6675251.9</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1255765.9</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5432323.1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>13310939.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2467642.2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>394057.2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1785091.7</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6291402.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>22336962.6</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4794905.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6904505</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3517713.7</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2282593.6</v>
+      </c>
+      <c r="R2" t="n">
+        <v>812743</v>
+      </c>
+      <c r="S2" t="n">
+        <v>7323437.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>137884.3</v>
+      </c>
       <c r="U2" t="n">
-        <v>6734600</v>
+        <v>48797000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4055073.7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5090969.9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1226707.2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7270270.9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1535526.5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6626496.4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>16060241.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2306146.6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>475755.7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2244296.7</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6088061.8</v>
+      </c>
+      <c r="M3" t="n">
+        <v>21618867.6</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5067043.4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>7103912.4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3780558.3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2874783</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1039839.9</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6273841.4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>181311.5</v>
+      </c>
       <c r="U3" t="n">
-        <v>14232286.6</v>
+        <v>52449357.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4716386.8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5415488</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1476385.1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8380870.4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1871069.3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7286557.3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18658942.1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2426907</v>
+      </c>
+      <c r="J4" t="n">
+        <v>777290.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2734262.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6149331.7</v>
+      </c>
+      <c r="M4" t="n">
+        <v>26795063.2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6422840</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7905331.6</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1329967.8</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3417033.3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1217509.6</v>
+      </c>
+      <c r="S4" t="n">
+        <v>7028553.7</v>
+      </c>
+      <c r="T4" t="n">
+        <v>240486.5</v>
+      </c>
       <c r="U4" t="n">
-        <v>27251000</v>
+        <v>61863403.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2203095</v>
+        <v>5626220.4</v>
       </c>
       <c r="C5" t="n">
-        <v>2859119</v>
+        <v>6234558.3</v>
       </c>
       <c r="D5" t="n">
-        <v>700873</v>
+        <v>1668913</v>
       </c>
       <c r="E5" t="n">
-        <v>5087680</v>
+        <v>9360138.800000001</v>
       </c>
       <c r="F5" t="n">
-        <v>1120950</v>
+        <v>2011073.7</v>
       </c>
       <c r="G5" t="n">
-        <v>3980069</v>
+        <v>8245632</v>
       </c>
       <c r="H5" t="n">
-        <v>9939643</v>
+        <v>21327062.6</v>
       </c>
       <c r="I5" t="n">
-        <v>1448898</v>
+        <v>3795279.4</v>
       </c>
       <c r="J5" t="n">
-        <v>258302</v>
+        <v>1066935.3</v>
       </c>
       <c r="K5" t="n">
-        <v>1353209</v>
+        <v>2961365.9</v>
       </c>
       <c r="L5" t="n">
-        <v>3529814</v>
+        <v>7040713.6</v>
       </c>
       <c r="M5" t="n">
-        <v>13096044</v>
+        <v>33267794.7</v>
       </c>
       <c r="N5" t="n">
-        <v>1536052</v>
+        <v>7974307.2</v>
       </c>
       <c r="O5" t="n">
-        <v>4872488</v>
+        <v>8104261.1</v>
       </c>
       <c r="P5" t="n">
-        <v>2976784</v>
+        <v>1001815.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1489466</v>
+        <v>4123789.7</v>
       </c>
       <c r="R5" t="n">
-        <v>897096</v>
+        <v>1392728.4</v>
       </c>
       <c r="S5" t="n">
-        <v>5508106</v>
+        <v>8971594.6</v>
       </c>
       <c r="T5" t="n">
-        <v>113999</v>
+        <v>283159.3</v>
       </c>
       <c r="U5" t="n">
-        <v>32785340</v>
+        <v>72337478.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3053686.6</v>
+        <v>6190998.5</v>
       </c>
       <c r="C6" t="n">
-        <v>4176557.2</v>
+        <v>6716737.8</v>
       </c>
       <c r="D6" t="n">
-        <v>927633.8</v>
+        <v>2754321.3</v>
       </c>
       <c r="E6" t="n">
-        <v>6675251.9</v>
+        <v>10642334.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1255765.9</v>
+        <v>2371827.7</v>
       </c>
       <c r="G6" t="n">
-        <v>5432323.1</v>
+        <v>9088565.5</v>
       </c>
       <c r="H6" t="n">
-        <v>13310939.1</v>
+        <v>23824659.6</v>
       </c>
       <c r="I6" t="n">
-        <v>2467642.2</v>
+        <v>2938270.1</v>
       </c>
       <c r="J6" t="n">
-        <v>394057.2</v>
+        <v>1079565.1</v>
       </c>
       <c r="K6" t="n">
-        <v>1785091.7</v>
+        <v>3333587.1</v>
       </c>
       <c r="L6" t="n">
-        <v>6291402.1</v>
+        <v>8702965.4</v>
       </c>
       <c r="M6" t="n">
-        <v>22336962.6</v>
+        <v>37443878.1</v>
       </c>
       <c r="N6" t="n">
-        <v>4794905.5</v>
+        <v>8471865.5</v>
       </c>
       <c r="O6" t="n">
-        <v>6904505</v>
+        <v>8891512.4</v>
       </c>
       <c r="P6" t="n">
-        <v>3517713.7</v>
+        <v>1529269.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>2282593.6</v>
+        <v>4219878</v>
       </c>
       <c r="R6" t="n">
-        <v>812743</v>
+        <v>1703461.4</v>
       </c>
       <c r="S6" t="n">
-        <v>7323437.5</v>
+        <v>10462546.5</v>
       </c>
       <c r="T6" t="n">
-        <v>137884.3</v>
+        <v>292649.9</v>
       </c>
       <c r="U6" t="n">
-        <v>48797000</v>
+        <v>80952077</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4055073.7</v>
+        <v>6969515.8</v>
       </c>
       <c r="C7" t="n">
-        <v>5090969.9</v>
+        <v>6927399.9</v>
       </c>
       <c r="D7" t="n">
-        <v>1226707.2</v>
+        <v>2919830.9</v>
       </c>
       <c r="E7" t="n">
-        <v>7270270.9</v>
+        <v>11973323.9</v>
       </c>
       <c r="F7" t="n">
-        <v>1535526.5</v>
+        <v>2460892.6</v>
       </c>
       <c r="G7" t="n">
-        <v>6626496.4</v>
+        <v>9388292.5</v>
       </c>
       <c r="H7" t="n">
-        <v>16060241.5</v>
+        <v>27173492.6</v>
       </c>
       <c r="I7" t="n">
-        <v>2306146.6</v>
+        <v>2172954.6</v>
       </c>
       <c r="J7" t="n">
-        <v>475755.7</v>
+        <v>1268514.3</v>
       </c>
       <c r="K7" t="n">
-        <v>2244296.7</v>
+        <v>3903830.5</v>
       </c>
       <c r="L7" t="n">
-        <v>6088061.8</v>
+        <v>9992565.199999999</v>
       </c>
       <c r="M7" t="n">
-        <v>21618867.6</v>
+        <v>43489094.7</v>
       </c>
       <c r="N7" t="n">
-        <v>5067043.4</v>
+        <v>7706384.1</v>
       </c>
       <c r="O7" t="n">
-        <v>7103912.4</v>
+        <v>6220702.7</v>
       </c>
       <c r="P7" t="n">
-        <v>3780558.3</v>
+        <v>1603459.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>2874783</v>
+        <v>1860214.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1039839.9</v>
+        <v>1960584</v>
       </c>
       <c r="S7" t="n">
-        <v>6273841.4</v>
+        <v>15726724.5</v>
       </c>
       <c r="T7" t="n">
-        <v>181311.5</v>
+        <v>305353.9</v>
       </c>
       <c r="U7" t="n">
-        <v>52449357.8</v>
+        <v>89863290.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4716386.8</v>
+        <v>7657900.2</v>
       </c>
       <c r="C8" t="n">
-        <v>5415488</v>
+        <v>7680845.7</v>
       </c>
       <c r="D8" t="n">
-        <v>1476385.1</v>
+        <v>3481491.7</v>
       </c>
       <c r="E8" t="n">
-        <v>8380870.4</v>
+        <v>14418695.3</v>
       </c>
       <c r="F8" t="n">
-        <v>1871069.3</v>
+        <v>3309417</v>
       </c>
       <c r="G8" t="n">
-        <v>7286557.3</v>
+        <v>10990262.7</v>
       </c>
       <c r="H8" t="n">
-        <v>18658942.1</v>
+        <v>31149949.6</v>
       </c>
       <c r="I8" t="n">
-        <v>2426907</v>
+        <v>3197379.4</v>
       </c>
       <c r="J8" t="n">
-        <v>777290.5</v>
+        <v>1521302.7</v>
       </c>
       <c r="K8" t="n">
-        <v>2734262.3</v>
+        <v>4197002.4</v>
       </c>
       <c r="L8" t="n">
-        <v>6149331.7</v>
+        <v>11071799.7</v>
       </c>
       <c r="M8" t="n">
-        <v>26795063.2</v>
+        <v>48216982.6</v>
       </c>
       <c r="N8" t="n">
-        <v>6422840</v>
+        <v>11292453.7</v>
       </c>
       <c r="O8" t="n">
-        <v>7905331.6</v>
+        <v>8193425.6</v>
       </c>
       <c r="P8" t="n">
-        <v>1329967.8</v>
+        <v>1643791.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>3417033.3</v>
+        <v>3127467.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1217509.6</v>
+        <v>2243901.7</v>
       </c>
       <c r="S8" t="n">
-        <v>7028553.7</v>
+        <v>12415556.5</v>
       </c>
       <c r="T8" t="n">
-        <v>240486.5</v>
+        <v>304551.6</v>
       </c>
       <c r="U8" t="n">
-        <v>61863403.8</v>
+        <v>103017966.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5626220.4</v>
+        <v>7122261.6</v>
       </c>
       <c r="C9" t="n">
-        <v>6234558.3</v>
+        <v>8412348.6</v>
       </c>
       <c r="D9" t="n">
-        <v>1668913</v>
+        <v>3581328.3</v>
       </c>
       <c r="E9" t="n">
-        <v>9360138.800000001</v>
+        <v>16128055.2</v>
       </c>
       <c r="F9" t="n">
-        <v>2011073.7</v>
+        <v>3260337.1</v>
       </c>
       <c r="G9" t="n">
-        <v>8245632</v>
+        <v>11672685.7</v>
       </c>
       <c r="H9" t="n">
-        <v>21327062.6</v>
+        <v>33248083</v>
       </c>
       <c r="I9" t="n">
-        <v>3795279.4</v>
+        <v>3146200.7</v>
       </c>
       <c r="J9" t="n">
-        <v>1066935.3</v>
+        <v>1328299.4</v>
       </c>
       <c r="K9" t="n">
-        <v>2961365.9</v>
+        <v>4887334.9</v>
       </c>
       <c r="L9" t="n">
-        <v>7040713.6</v>
+        <v>11804154</v>
       </c>
       <c r="M9" t="n">
-        <v>33267794.7</v>
+        <v>56191156.4</v>
       </c>
       <c r="N9" t="n">
-        <v>7974307.2</v>
+        <v>14026994</v>
       </c>
       <c r="O9" t="n">
-        <v>8104261.1</v>
+        <v>7411794.7</v>
       </c>
       <c r="P9" t="n">
-        <v>1001815.3</v>
+        <v>1404140.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>4123789.7</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1392728.4</v>
-      </c>
+        <v>2248241.9</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>8971594.6</v>
-      </c>
-      <c r="T9" t="n">
-        <v>283159.3</v>
-      </c>
+        <v>16647667.9</v>
+      </c>
+      <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>72337478.8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>6190998.5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>6716737.8</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2754321.3</v>
-      </c>
-      <c r="E10" t="n">
-        <v>10642334.3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2371827.7</v>
-      </c>
-      <c r="G10" t="n">
-        <v>9088565.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>23824659.6</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2938270.1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1079565.1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3333587.1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>8702965.4</v>
-      </c>
-      <c r="M10" t="n">
-        <v>37443878.1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>8471865.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>8891512.4</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1529269.9</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4219878</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1703461.4</v>
-      </c>
-      <c r="S10" t="n">
-        <v>10462546.5</v>
-      </c>
-      <c r="T10" t="n">
-        <v>292649.9</v>
-      </c>
-      <c r="U10" t="n">
-        <v>80952077</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6969515.8</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6927399.9</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2919830.9</v>
-      </c>
-      <c r="E11" t="n">
-        <v>11973323.9</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2460892.6</v>
-      </c>
-      <c r="G11" t="n">
-        <v>9388292.5</v>
-      </c>
-      <c r="H11" t="n">
-        <v>27173492.6</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2172954.6</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1268514.3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3903830.5</v>
-      </c>
-      <c r="L11" t="n">
-        <v>9992565.199999999</v>
-      </c>
-      <c r="M11" t="n">
-        <v>43489094.7</v>
-      </c>
-      <c r="N11" t="n">
-        <v>7706384.1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>6220702.7</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1603459.4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1860214.1</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1960584</v>
-      </c>
-      <c r="S11" t="n">
-        <v>15726724.5</v>
-      </c>
-      <c r="T11" t="n">
-        <v>305353.9</v>
-      </c>
-      <c r="U11" t="n">
-        <v>89863290.5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7657900.2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>7680845.7</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3481491.7</v>
-      </c>
-      <c r="E12" t="n">
-        <v>14418695.3</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3309417</v>
-      </c>
-      <c r="G12" t="n">
-        <v>10990262.7</v>
-      </c>
-      <c r="H12" t="n">
-        <v>31149949.6</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3197379.4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1521302.7</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4197002.4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>11071799.7</v>
-      </c>
-      <c r="M12" t="n">
-        <v>48216982.6</v>
-      </c>
-      <c r="N12" t="n">
-        <v>11292453.7</v>
-      </c>
-      <c r="O12" t="n">
-        <v>8193425.6</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1643791.1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3127467.2</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2243901.7</v>
-      </c>
-      <c r="S12" t="n">
-        <v>12415556.5</v>
-      </c>
-      <c r="T12" t="n">
-        <v>304551.6</v>
-      </c>
-      <c r="U12" t="n">
-        <v>103017966.1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7122261.6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>8412348.6</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3581328.3</v>
-      </c>
-      <c r="E13" t="n">
-        <v>16128055.2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3260337.1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>11672685.7</v>
-      </c>
-      <c r="H13" t="n">
-        <v>33248083</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3146200.7</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1328299.4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4887334.9</v>
-      </c>
-      <c r="L13" t="n">
-        <v>11804154</v>
-      </c>
-      <c r="M13" t="n">
-        <v>56191156.4</v>
-      </c>
-      <c r="N13" t="n">
-        <v>14026994</v>
-      </c>
-      <c r="O13" t="n">
-        <v>7411794.7</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1404140.7</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2248241.9</v>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>16647667.9</v>
-      </c>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="n">
         <v>112958806.5</v>
       </c>
     </row>
